--- a/m3c2_stats_distances-formatted.xlsx
+++ b/m3c2_stats_distances-formatted.xlsx
@@ -27,6 +27,54 @@
     <author>Hödl, Sieglinde</author>
   </authors>
   <commentList>
+    <comment ref="J3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Hödl, Sieglinde:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Deutlich positiv → die Vergleichsoberfläche liegt im Schnitt weiter „oben“/„außen“ als die Referenzoberfläche.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Hödl, Sieglinde:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Range größer da weniger NaN Werte wegfallen</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -107,9 +155,6 @@
     <t>Mean</t>
   </si>
   <si>
-    <t>Median</t>
-  </si>
-  <si>
     <t>RMS</t>
   </si>
   <si>
@@ -471,6 +516,9 @@
   </si>
   <si>
     <t>DELTA</t>
+  </si>
+  <si>
+    <t>Median (Bias)</t>
   </si>
 </sst>
 </file>
@@ -891,14 +939,17 @@
   <dimension ref="A1:BC31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="Y23" sqref="Y23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="7"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="7" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
     <col min="54" max="54" width="46.42578125" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="44.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -953,135 +1004,135 @@
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
         <v>55</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>56</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>57</v>
-      </c>
-      <c r="D2" t="s">
-        <v>58</v>
       </c>
       <c r="E2">
         <v>709128</v>
@@ -1231,24 +1282,24 @@
         <v>-2.1436635248288881E-4</v>
       </c>
       <c r="BB2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC2" t="s">
         <v>59</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
         <v>61</v>
       </c>
-      <c r="B3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3">
         <v>709128</v>
@@ -1392,18 +1443,18 @@
         <v>0.1097713629020431</v>
       </c>
       <c r="BB3" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC3" t="s">
         <v>63</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:55" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C4" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" s="4">
         <f>E3-E2</f>
@@ -1602,18 +1653,18 @@
         <v>0.10998572925452599</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
         <v>100</v>
-      </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>101</v>
       </c>
       <c r="E5">
         <v>709128</v>
@@ -1763,24 +1814,24 @@
         <v>-1.8754960001297551E-3</v>
       </c>
       <c r="BB5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC5" t="s">
         <v>102</v>
       </c>
-      <c r="BC5" t="s">
+    </row>
+    <row r="6" spans="1:55" s="3" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="6" spans="1:55" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="B6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E6" s="3">
         <v>709128</v>
@@ -1930,24 +1981,24 @@
         <v>0.11068806169492119</v>
       </c>
       <c r="BB6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC6" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="BC6" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
         <v>65</v>
       </c>
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
       <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
         <v>57</v>
-      </c>
-      <c r="D7" t="s">
-        <v>58</v>
       </c>
       <c r="E7">
         <v>4524729</v>
@@ -2091,24 +2142,24 @@
         <v>3.787716629522337E-2</v>
       </c>
       <c r="BB7" t="s">
+        <v>66</v>
+      </c>
+      <c r="BC7" t="s">
         <v>67</v>
-      </c>
-      <c r="BC7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8">
         <v>4524729</v>
@@ -2252,18 +2303,18 @@
         <v>1.5709753959691569E-2</v>
       </c>
       <c r="BB8" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC8" t="s">
         <v>70</v>
-      </c>
-      <c r="BC8" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:55" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9" s="4">
         <f>E8-E7</f>
@@ -2462,18 +2513,18 @@
         <v>-2.2167412335531801E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E10">
         <v>4524729</v>
@@ -2623,24 +2674,24 @@
         <v>5.0336082557561369E-2</v>
       </c>
       <c r="BB10" t="s">
+        <v>107</v>
+      </c>
+      <c r="BC10" t="s">
         <v>108</v>
       </c>
-      <c r="BC10" t="s">
+    </row>
+    <row r="11" spans="1:55" s="3" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="11" spans="1:55" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="B11" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E11" s="3">
         <v>4524729</v>
@@ -2790,24 +2841,24 @@
         <v>6.653289685933908E-2</v>
       </c>
       <c r="BB11" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC11" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="BC11" s="3" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
         <v>72</v>
       </c>
-      <c r="B12" t="s">
-        <v>73</v>
-      </c>
       <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
         <v>57</v>
-      </c>
-      <c r="D12" t="s">
-        <v>58</v>
       </c>
       <c r="E12">
         <v>4760406</v>
@@ -2957,24 +3008,24 @@
         <v>-2.6930168556634361E-4</v>
       </c>
       <c r="BB12" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC12" t="s">
         <v>74</v>
-      </c>
-      <c r="BC12" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13">
         <v>4760406</v>
@@ -3124,18 +3175,18 @@
         <v>-1.2803668215090921E-3</v>
       </c>
       <c r="BB13" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC13" t="s">
         <v>77</v>
-      </c>
-      <c r="BC13" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:55" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C14" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="4">
         <f>E13-E12</f>
@@ -3334,18 +3385,18 @@
         <v>-1.0110651359427486E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E15">
         <v>4760406</v>
@@ -3495,24 +3546,24 @@
         <v>-4.3371186205947709E-3</v>
       </c>
       <c r="BB15" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC15" t="s">
         <v>114</v>
       </c>
-      <c r="BC15" t="s">
+    </row>
+    <row r="16" spans="1:55" s="3" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="16" spans="1:55" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="B16" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E16" s="3">
         <v>4760406</v>
@@ -3662,24 +3713,24 @@
         <v>-5.1313929859768508E-3</v>
       </c>
       <c r="BB16" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="BC16" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="BC16" s="3" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
         <v>79</v>
       </c>
-      <c r="B17" t="s">
-        <v>80</v>
-      </c>
       <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
         <v>57</v>
-      </c>
-      <c r="D17" t="s">
-        <v>58</v>
       </c>
       <c r="E17">
         <v>107169</v>
@@ -3829,24 +3880,24 @@
         <v>3.8554035271393783E-2</v>
       </c>
       <c r="BB17" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC17" t="s">
         <v>81</v>
-      </c>
-      <c r="BC17" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18">
         <v>107169</v>
@@ -3996,18 +4047,18 @@
         <v>2.166209696833973E-3</v>
       </c>
       <c r="BB18" t="s">
+        <v>83</v>
+      </c>
+      <c r="BC18" t="s">
         <v>84</v>
-      </c>
-      <c r="BC18" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:55" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19" s="4">
         <f>E18-E17</f>
@@ -4206,18 +4257,18 @@
         <v>-3.6387825574559808E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E20">
         <v>107169</v>
@@ -4367,24 +4418,24 @@
         <v>4.0792028663170103E-2</v>
       </c>
       <c r="BB20" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC20" t="s">
         <v>120</v>
       </c>
-      <c r="BC20" t="s">
+    </row>
+    <row r="21" spans="1:55" s="3" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="21" spans="1:55" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="B21" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E21" s="3">
         <v>107169</v>
@@ -4534,24 +4585,24 @@
         <v>6.7216708344301128E-4</v>
       </c>
       <c r="BB21" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="BC21" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="BC21" s="3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" t="s">
         <v>86</v>
       </c>
-      <c r="B22" t="s">
-        <v>87</v>
-      </c>
       <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
         <v>57</v>
-      </c>
-      <c r="D22" t="s">
-        <v>58</v>
       </c>
       <c r="E22">
         <v>525255</v>
@@ -4701,24 +4752,24 @@
         <v>-3.2936434318415731E-3</v>
       </c>
       <c r="BB22" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC22" t="s">
         <v>88</v>
-      </c>
-      <c r="BC22" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>525255</v>
@@ -4868,18 +4919,18 @@
         <v>-3.317072118721562E-3</v>
       </c>
       <c r="BB23" t="s">
+        <v>90</v>
+      </c>
+      <c r="BC23" t="s">
         <v>91</v>
-      </c>
-      <c r="BC23" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:55" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" s="4">
         <f>E23-E22</f>
@@ -5078,18 +5129,18 @@
         <v>-2.3428686879988902E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E25">
         <v>525255</v>
@@ -5239,24 +5290,24 @@
         <v>2.4078741825275282E-3</v>
       </c>
       <c r="BB25" t="s">
+        <v>125</v>
+      </c>
+      <c r="BC25" t="s">
         <v>126</v>
       </c>
-      <c r="BC25" t="s">
+    </row>
+    <row r="26" spans="1:55" s="3" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="26" spans="1:55" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="B26" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
         <v>525255</v>
@@ -5406,24 +5457,24 @@
         <v>2.0127312884018408E-3</v>
       </c>
       <c r="BB26" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BC26" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="BC26" s="3" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" t="s">
         <v>93</v>
       </c>
-      <c r="B27" t="s">
-        <v>94</v>
-      </c>
       <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" t="s">
         <v>57</v>
-      </c>
-      <c r="D27" t="s">
-        <v>58</v>
       </c>
       <c r="E27">
         <v>456945</v>
@@ -5573,24 +5624,24 @@
         <v>-1.371377478934294E-2</v>
       </c>
       <c r="BB27" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC27" t="s">
         <v>95</v>
-      </c>
-      <c r="BC27" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E28">
         <v>456945</v>
@@ -5734,18 +5785,18 @@
         <v>-2.5180839417215179E-2</v>
       </c>
       <c r="BB28" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC28" t="s">
         <v>98</v>
-      </c>
-      <c r="BC28" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:55" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E29" s="4">
         <f>E28-E27</f>
@@ -5944,18 +5995,18 @@
         <v>-1.1467064627872239E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E30">
         <v>456945</v>
@@ -6105,24 +6156,24 @@
         <v>-1.7231294509913429E-2</v>
       </c>
       <c r="BB30" t="s">
+        <v>131</v>
+      </c>
+      <c r="BC30" t="s">
         <v>132</v>
       </c>
-      <c r="BC30" t="s">
+    </row>
+    <row r="31" spans="1:55" s="3" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="31" spans="1:55" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="B31" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E31" s="3">
         <v>456945</v>
@@ -6272,10 +6323,10 @@
         <v>-3.1895629761310017E-2</v>
       </c>
       <c r="BB31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="BC31" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="BC31" s="3" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -6286,5 +6337,353 @@
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="18" id="{2DD222DB-F783-47BA-BF26-48954CD0E1BE}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F4:G4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="17" id="{8FAD578A-7A0A-44E7-AD79-22BCD8DC9DE5}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="16" id="{1226971B-A21C-490A-A88E-327575CC8E03}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="15" id="{2946CAB5-603F-418D-A9CF-55EAA743EE91}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F9:G9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="14" id="{CC54DEAD-72FC-4F69-8490-16864EF302FE}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="13" id="{52C39531-67D1-4757-A7E0-D96F553D4307}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="12" id="{78461F2F-F2E6-4BA2-8354-F3512909E1C1}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F14:G14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="11" id="{F997FD95-322C-4E2F-B8F4-1ACC6F58D696}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="10" id="{A86E6587-2833-4A6E-A062-963BE7EEB5C8}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="9" id="{1347A163-67DB-4490-A57D-4AB1E6188C56}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F19:G19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="8" id="{BC4B08B5-933A-43A0-AA8B-D978D9557040}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="7" id="{01546C24-67D7-4B2B-8990-ECA1C62212FE}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="6" id="{5574DFB6-1A8E-42CA-B9AD-2B6AD12918BF}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F24:G24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="5" id="{5820B978-A157-4F2E-8E18-83CF27E76E7E}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="4" id="{666E9FF2-F588-4696-97F1-CE1F70025E9A}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{1CDDEF39-C43E-47C5-BDD5-2C1A0D3F83F0}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F29:G29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{6F8DB384-1ECA-43B6-A096-E32B700EE85A}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{08907D8C-C564-4E92-8EEF-756116FA6E43}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I29</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>